--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.4444644189856</v>
+        <v>17.79338833333333</v>
       </c>
       <c r="H2">
-        <v>14.4444644189856</v>
+        <v>53.380165</v>
       </c>
       <c r="I2">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878441</v>
       </c>
       <c r="J2">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878442</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.839493359722986</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N2">
-        <v>0.839493359722986</v>
+        <v>2.952071</v>
       </c>
       <c r="O2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P2">
-        <v>0.0818099111979609</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q2">
-        <v>12.12603196449335</v>
+        <v>17.50911523019056</v>
       </c>
       <c r="R2">
-        <v>12.12603196449335</v>
+        <v>157.582037071715</v>
       </c>
       <c r="S2">
-        <v>0.002270019516624599</v>
+        <v>0.00276123610975165</v>
       </c>
       <c r="T2">
-        <v>0.002270019516624599</v>
+        <v>0.002761236109751651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.4444644189856</v>
+        <v>17.79338833333333</v>
       </c>
       <c r="H3">
-        <v>14.4444644189856</v>
+        <v>53.380165</v>
       </c>
       <c r="I3">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878441</v>
       </c>
       <c r="J3">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878442</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.45263670601819</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N3">
-        <v>2.45263670601819</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P3">
-        <v>0.2390131962287557</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q3">
-        <v>35.4270236327778</v>
+        <v>43.78129628066444</v>
       </c>
       <c r="R3">
-        <v>35.4270236327778</v>
+        <v>394.03166652598</v>
       </c>
       <c r="S3">
-        <v>0.006632015757323348</v>
+        <v>0.006904432041971924</v>
       </c>
       <c r="T3">
-        <v>0.006632015757323348</v>
+        <v>0.006904432041971926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.4444644189856</v>
+        <v>17.79338833333333</v>
       </c>
       <c r="H4">
-        <v>14.4444644189856</v>
+        <v>53.380165</v>
       </c>
       <c r="I4">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878441</v>
       </c>
       <c r="J4">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878442</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.29428765945227</v>
+        <v>0.36615</v>
       </c>
       <c r="N4">
-        <v>0.29428765945227</v>
+        <v>1.09845</v>
       </c>
       <c r="O4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P4">
-        <v>0.02867878227695617</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q4">
-        <v>4.250827625904865</v>
+        <v>6.51504913825</v>
       </c>
       <c r="R4">
-        <v>4.250827625904865</v>
+        <v>58.63544224425001</v>
       </c>
       <c r="S4">
-        <v>0.0007957641626598026</v>
+        <v>0.001027441347026105</v>
       </c>
       <c r="T4">
-        <v>0.0007957641626598026</v>
+        <v>0.001027441347026105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.4444644189856</v>
+        <v>17.79338833333333</v>
       </c>
       <c r="H5">
-        <v>14.4444644189856</v>
+        <v>53.380165</v>
       </c>
       <c r="I5">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878441</v>
       </c>
       <c r="J5">
-        <v>0.0277474878457169</v>
+        <v>0.03367218387878442</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.67509396000577</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N5">
-        <v>6.67509396000577</v>
+        <v>0.379018</v>
       </c>
       <c r="O5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P5">
-        <v>0.6504981102963272</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q5">
-        <v>96.41815719868904</v>
+        <v>2.248004819774444</v>
       </c>
       <c r="R5">
-        <v>96.41815719868904</v>
+        <v>20.23204337797</v>
       </c>
       <c r="S5">
-        <v>0.01804968840910915</v>
+        <v>0.0003545166047313398</v>
       </c>
       <c r="T5">
-        <v>0.01804968840910915</v>
+        <v>0.0003545166047313399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>478.009099259445</v>
+        <v>17.79338833333333</v>
       </c>
       <c r="H6">
-        <v>478.009099259445</v>
+        <v>53.380165</v>
       </c>
       <c r="I6">
-        <v>0.9182446151766008</v>
+        <v>0.03367218387878441</v>
       </c>
       <c r="J6">
-        <v>0.9182446151766008</v>
+        <v>0.03367218387878442</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.839493359722986</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N6">
-        <v>0.839493359722986</v>
+        <v>24.188189</v>
       </c>
       <c r="O6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P6">
-        <v>0.0818099111979609</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q6">
-        <v>401.2854647154698</v>
+        <v>143.4632799856872</v>
       </c>
       <c r="R6">
-        <v>401.2854647154698</v>
+        <v>1291.169519871185</v>
       </c>
       <c r="S6">
-        <v>0.07512151042560349</v>
+        <v>0.02262455777530339</v>
       </c>
       <c r="T6">
-        <v>0.07512151042560349</v>
+        <v>0.0226245577753034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>478.009099259445</v>
+        <v>478.158071</v>
       </c>
       <c r="H7">
-        <v>478.009099259445</v>
+        <v>1434.474213</v>
       </c>
       <c r="I7">
-        <v>0.9182446151766008</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="J7">
-        <v>0.9182446151766008</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.45263670601819</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N7">
-        <v>2.45263670601819</v>
+        <v>2.952071</v>
       </c>
       <c r="O7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P7">
-        <v>0.2390131962287557</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q7">
-        <v>1172.382662654407</v>
+        <v>470.5188582716804</v>
       </c>
       <c r="R7">
-        <v>1172.382662654407</v>
+        <v>4234.669724445123</v>
       </c>
       <c r="S7">
-        <v>0.2194725803932032</v>
+        <v>0.07420213098710318</v>
       </c>
       <c r="T7">
-        <v>0.2194725803932032</v>
+        <v>0.07420213098710318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>478.009099259445</v>
+        <v>478.158071</v>
       </c>
       <c r="H8">
-        <v>478.009099259445</v>
+        <v>1434.474213</v>
       </c>
       <c r="I8">
-        <v>0.9182446151766008</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="J8">
-        <v>0.9182446151766008</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.29428765945227</v>
+        <v>2.460537333333333</v>
       </c>
       <c r="N8">
-        <v>0.29428765945227</v>
+        <v>7.381612000000001</v>
       </c>
       <c r="O8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="P8">
-        <v>0.02867878227695617</v>
+        <v>0.2050485370009561</v>
       </c>
       <c r="Q8">
-        <v>140.6721790179499</v>
+        <v>1176.525784930151</v>
       </c>
       <c r="R8">
-        <v>140.6721790179499</v>
+        <v>10588.73206437136</v>
       </c>
       <c r="S8">
-        <v>0.02633413739563714</v>
+        <v>0.1855413845127616</v>
       </c>
       <c r="T8">
-        <v>0.02633413739563714</v>
+        <v>0.1855413845127616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>478.009099259445</v>
+        <v>478.158071</v>
       </c>
       <c r="H9">
-        <v>478.009099259445</v>
+        <v>1434.474213</v>
       </c>
       <c r="I9">
-        <v>0.9182446151766008</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="J9">
-        <v>0.9182446151766008</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.67509396000577</v>
+        <v>0.36615</v>
       </c>
       <c r="N9">
-        <v>6.67509396000577</v>
+        <v>1.09845</v>
       </c>
       <c r="O9">
-        <v>0.6504981102963272</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="P9">
-        <v>0.6504981102963272</v>
+        <v>0.03051305940608911</v>
       </c>
       <c r="Q9">
-        <v>3190.75565129452</v>
+        <v>175.07757769665</v>
       </c>
       <c r="R9">
-        <v>3190.75565129452</v>
+        <v>1575.69819926985</v>
       </c>
       <c r="S9">
-        <v>0.5973163869621571</v>
+        <v>0.0276102203445593</v>
       </c>
       <c r="T9">
-        <v>0.5973163869621571</v>
+        <v>0.0276102203445593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.1148027012755</v>
+        <v>478.158071</v>
       </c>
       <c r="H10">
-        <v>28.1148027012755</v>
+        <v>1434.474213</v>
       </c>
       <c r="I10">
-        <v>0.05400789697768221</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="J10">
-        <v>0.05400789697768221</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.839493359722986</v>
+        <v>0.1263393333333333</v>
       </c>
       <c r="N10">
-        <v>0.839493359722986</v>
+        <v>0.379018</v>
       </c>
       <c r="O10">
-        <v>0.0818099111979609</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="P10">
-        <v>0.0818099111979609</v>
+        <v>0.01052847079974244</v>
       </c>
       <c r="Q10">
-        <v>23.60219017764265</v>
+        <v>60.41017191809267</v>
       </c>
       <c r="R10">
-        <v>23.60219017764265</v>
+        <v>543.691547262834</v>
       </c>
       <c r="S10">
-        <v>0.004418381255732803</v>
+        <v>0.009526851922758591</v>
       </c>
       <c r="T10">
-        <v>0.004418381255732803</v>
+        <v>0.009526851922758591</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.1148027012755</v>
+        <v>478.158071</v>
       </c>
       <c r="H11">
-        <v>28.1148027012755</v>
+        <v>1434.474213</v>
       </c>
       <c r="I11">
-        <v>0.05400789697768221</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="J11">
-        <v>0.05400789697768221</v>
+        <v>0.9048656831523576</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.45263670601819</v>
+        <v>8.062729666666668</v>
       </c>
       <c r="N11">
-        <v>2.45263670601819</v>
+        <v>24.188189</v>
       </c>
       <c r="O11">
-        <v>0.2390131962287557</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="P11">
-        <v>0.2390131962287557</v>
+        <v>0.671906457173937</v>
       </c>
       <c r="Q11">
-        <v>68.95539708760766</v>
+        <v>3855.259264407807</v>
       </c>
       <c r="R11">
-        <v>68.95539708760766</v>
+        <v>34697.33337967026</v>
       </c>
       <c r="S11">
-        <v>0.01290860007822918</v>
+        <v>0.6079850953851749</v>
       </c>
       <c r="T11">
-        <v>0.01290860007822918</v>
+        <v>0.6079850953851749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>28.1148027012755</v>
+        <v>0.073687</v>
       </c>
       <c r="H12">
-        <v>28.1148027012755</v>
+        <v>0.221061</v>
       </c>
       <c r="I12">
-        <v>0.05400789697768221</v>
+        <v>0.0001394451785682559</v>
       </c>
       <c r="J12">
-        <v>0.05400789697768221</v>
+        <v>0.0001394451785682559</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.29428765945227</v>
+        <v>0.9840236666666667</v>
       </c>
       <c r="N12">
-        <v>0.29428765945227</v>
+        <v>2.952071</v>
       </c>
       <c r="O12">
-        <v>0.02867878227695617</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="P12">
-        <v>0.02867878227695617</v>
+        <v>0.08200347561927523</v>
       </c>
       <c r="Q12">
-        <v>8.273839482920724</v>
+        <v>0.07250975192566668</v>
       </c>
       <c r="R12">
-        <v>8.273839482920724</v>
+        <v>0.6525877673310001</v>
       </c>
       <c r="S12">
-        <v>0.001548880718659227</v>
+        <v>1.143498930094745E-05</v>
       </c>
       <c r="T12">
-        <v>0.001548880718659227</v>
+        <v>1.143498930094745E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.073687</v>
+      </c>
+      <c r="H13">
+        <v>0.221061</v>
+      </c>
+      <c r="I13">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="J13">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.460537333333333</v>
+      </c>
+      <c r="N13">
+        <v>7.381612000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="P13">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="Q13">
+        <v>0.1813096144813333</v>
+      </c>
+      <c r="R13">
+        <v>1.631786530332</v>
+      </c>
+      <c r="S13">
+        <v>2.859302985725795E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.859302985725795E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.073687</v>
+      </c>
+      <c r="H14">
+        <v>0.221061</v>
+      </c>
+      <c r="I14">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="J14">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.36615</v>
+      </c>
+      <c r="N14">
+        <v>1.09845</v>
+      </c>
+      <c r="O14">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P14">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q14">
+        <v>0.02698049505</v>
+      </c>
+      <c r="R14">
+        <v>0.24282445545</v>
+      </c>
+      <c r="S14">
+        <v>4.254899017545896E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.254899017545896E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.073687</v>
+      </c>
+      <c r="H15">
+        <v>0.221061</v>
+      </c>
+      <c r="I15">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="J15">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.379018</v>
+      </c>
+      <c r="O15">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P15">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q15">
+        <v>0.009309566455333334</v>
+      </c>
+      <c r="R15">
+        <v>0.08378609809800001</v>
+      </c>
+      <c r="S15">
+        <v>1.468144490720752E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.468144490720752E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.073687</v>
+      </c>
+      <c r="H16">
+        <v>0.221061</v>
+      </c>
+      <c r="I16">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="J16">
+        <v>0.0001394451785682559</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N16">
+        <v>24.188189</v>
+      </c>
+      <c r="O16">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P16">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q16">
+        <v>0.5941183609476668</v>
+      </c>
+      <c r="R16">
+        <v>5.347065248529001</v>
+      </c>
+      <c r="S16">
+        <v>9.369411590178383E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.369411590178383E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01669866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.050096</v>
+      </c>
+      <c r="I17">
+        <v>3.160053408586474E-05</v>
+      </c>
+      <c r="J17">
+        <v>3.160053408586475E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9840236666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.952071</v>
+      </c>
+      <c r="O17">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="P17">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="Q17">
+        <v>0.01643188320177778</v>
+      </c>
+      <c r="R17">
+        <v>0.147886948816</v>
+      </c>
+      <c r="S17">
+        <v>2.591353626466285E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.591353626466286E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01669866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.050096</v>
+      </c>
+      <c r="I18">
+        <v>3.160053408586474E-05</v>
+      </c>
+      <c r="J18">
+        <v>3.160053408586475E-05</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.460537333333333</v>
+      </c>
+      <c r="N18">
+        <v>7.381612000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="P18">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="Q18">
+        <v>0.04108769275022223</v>
+      </c>
+      <c r="R18">
+        <v>0.369789234752</v>
+      </c>
+      <c r="S18">
+        <v>6.479643282755411E-06</v>
+      </c>
+      <c r="T18">
+        <v>6.479643282755413E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.1148027012755</v>
-      </c>
-      <c r="H13">
-        <v>28.1148027012755</v>
-      </c>
-      <c r="I13">
-        <v>0.05400789697768221</v>
-      </c>
-      <c r="J13">
-        <v>0.05400789697768221</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.67509396000577</v>
-      </c>
-      <c r="N13">
-        <v>6.67509396000577</v>
-      </c>
-      <c r="O13">
-        <v>0.6504981102963272</v>
-      </c>
-      <c r="P13">
-        <v>0.6504981102963272</v>
-      </c>
-      <c r="Q13">
-        <v>187.668949698038</v>
-      </c>
-      <c r="R13">
-        <v>187.668949698038</v>
-      </c>
-      <c r="S13">
-        <v>0.035132034925061</v>
-      </c>
-      <c r="T13">
-        <v>0.035132034925061</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01669866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.050096</v>
+      </c>
+      <c r="I19">
+        <v>3.160053408586474E-05</v>
+      </c>
+      <c r="J19">
+        <v>3.160053408586475E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.36615</v>
+      </c>
+      <c r="N19">
+        <v>1.09845</v>
+      </c>
+      <c r="O19">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P19">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q19">
+        <v>0.006114216800000001</v>
+      </c>
+      <c r="R19">
+        <v>0.05502795120000001</v>
+      </c>
+      <c r="S19">
+        <v>9.642289738261347E-07</v>
+      </c>
+      <c r="T19">
+        <v>9.642289738261349E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01669866666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.050096</v>
+      </c>
+      <c r="I20">
+        <v>3.160053408586474E-05</v>
+      </c>
+      <c r="J20">
+        <v>3.160053408586475E-05</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.379018</v>
+      </c>
+      <c r="O20">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P20">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q20">
+        <v>0.002109698414222222</v>
+      </c>
+      <c r="R20">
+        <v>0.018987285728</v>
+      </c>
+      <c r="S20">
+        <v>3.327053003792926E-07</v>
+      </c>
+      <c r="T20">
+        <v>3.327053003792926E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01669866666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.050096</v>
+      </c>
+      <c r="I21">
+        <v>3.160053408586474E-05</v>
+      </c>
+      <c r="J21">
+        <v>3.160053408586475E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N21">
+        <v>24.188189</v>
+      </c>
+      <c r="O21">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P21">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q21">
+        <v>0.1346368351271111</v>
+      </c>
+      <c r="R21">
+        <v>1.211731516144</v>
+      </c>
+      <c r="S21">
+        <v>2.123260290243762E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.123260290243762E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>32.38804233333334</v>
+      </c>
+      <c r="H22">
+        <v>97.16412700000001</v>
+      </c>
+      <c r="I22">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="J22">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9840236666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.952071</v>
+      </c>
+      <c r="O22">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="P22">
+        <v>0.08200347561927523</v>
+      </c>
+      <c r="Q22">
+        <v>31.8706001730019</v>
+      </c>
+      <c r="R22">
+        <v>286.835401557017</v>
+      </c>
+      <c r="S22">
+        <v>0.005026082179492988</v>
+      </c>
+      <c r="T22">
+        <v>0.005026082179492988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>32.38804233333334</v>
+      </c>
+      <c r="H23">
+        <v>97.16412700000001</v>
+      </c>
+      <c r="I23">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="J23">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.460537333333333</v>
+      </c>
+      <c r="N23">
+        <v>7.381612000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="P23">
+        <v>0.2050485370009561</v>
+      </c>
+      <c r="Q23">
+        <v>79.69198731474712</v>
+      </c>
+      <c r="R23">
+        <v>717.2278858327242</v>
+      </c>
+      <c r="S23">
+        <v>0.01256764777308256</v>
+      </c>
+      <c r="T23">
+        <v>0.01256764777308256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>32.38804233333334</v>
+      </c>
+      <c r="H24">
+        <v>97.16412700000001</v>
+      </c>
+      <c r="I24">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="J24">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.36615</v>
+      </c>
+      <c r="N24">
+        <v>1.09845</v>
+      </c>
+      <c r="O24">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="P24">
+        <v>0.03051305940608911</v>
+      </c>
+      <c r="Q24">
+        <v>11.85888170035</v>
+      </c>
+      <c r="R24">
+        <v>106.72993530315</v>
+      </c>
+      <c r="S24">
+        <v>0.001870178586512341</v>
+      </c>
+      <c r="T24">
+        <v>0.001870178586512341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>32.38804233333334</v>
+      </c>
+      <c r="H25">
+        <v>97.16412700000001</v>
+      </c>
+      <c r="I25">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="J25">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1263393333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.379018</v>
+      </c>
+      <c r="O25">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="P25">
+        <v>0.01052847079974244</v>
+      </c>
+      <c r="Q25">
+        <v>4.091883676365112</v>
+      </c>
+      <c r="R25">
+        <v>36.82695308728601</v>
+      </c>
+      <c r="S25">
+        <v>0.0006453014224614088</v>
+      </c>
+      <c r="T25">
+        <v>0.0006453014224614088</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.38804233333334</v>
+      </c>
+      <c r="H26">
+        <v>97.16412700000001</v>
+      </c>
+      <c r="I26">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="J26">
+        <v>0.06129108725620391</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.062729666666668</v>
+      </c>
+      <c r="N26">
+        <v>24.188189</v>
+      </c>
+      <c r="O26">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="P26">
+        <v>0.671906457173937</v>
+      </c>
+      <c r="Q26">
+        <v>261.1360297662226</v>
+      </c>
+      <c r="R26">
+        <v>2350.224267896003</v>
+      </c>
+      <c r="S26">
+        <v>0.04118187729465461</v>
+      </c>
+      <c r="T26">
+        <v>0.04118187729465461</v>
       </c>
     </row>
   </sheetData>
